--- a/medicine/Sexualité et sexologie/Affaire_de_mœurs/Affaire_de_mœurs.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_de_mœurs/Affaire_de_mœurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_de_m%C5%93urs</t>
+          <t>Affaire_de_mœurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une affaire de mœurs est un scandale sexuel non conforme à la loi, à la moralité, à la religion ou à la culture d'un pays.
 Le plus souvent liée à l'adultère, elle peut être passible de poursuites judiciaires. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_de_m%C5%93urs</t>
+          <t>Affaire_de_mœurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Affaire_de_m%C5%93urs</t>
+          <t>Affaire_de_mœurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,13 +552,15 @@
           <t>Quelques affaires célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'affaire des ballets roses en 1959, où été notamment mêlé l'ancien président de l'Assemblée nationale André Le Troquer. Cette affaire pédophile est qualifiée de « premier scandale de la Cinquième république »[1].
-Bill Clinton, alors président des États-Unis en 1999, qui a eu des relations sexuelles avec Monica Lewinsky, une stagiaire de la Maison-Blanche[2].
-Le golfeur Tiger Woods fin 2009, après que la presse a révélé ses nombreux adultères[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'affaire des ballets roses en 1959, où été notamment mêlé l'ancien président de l'Assemblée nationale André Le Troquer. Cette affaire pédophile est qualifiée de « premier scandale de la Cinquième république ».
+Bill Clinton, alors président des États-Unis en 1999, qui a eu des relations sexuelles avec Monica Lewinsky, une stagiaire de la Maison-Blanche.
+Le golfeur Tiger Woods fin 2009, après que la presse a révélé ses nombreux adultères.
 En 2010 éclate le scandale sexuel des employés du Vatican en 2010 qui défraya la chronique,
-En avril 2010, plusieurs joueurs de l'équipe de France de football accusés d'avoir eu des relations sexuelles avec Zahia Dehar, une prostituée mineure[4].
+En avril 2010, plusieurs joueurs de l'équipe de France de football accusés d'avoir eu des relations sexuelles avec Zahia Dehar, une prostituée mineure.
 En 2017, scandale Weinstein dont le retentissement a des répercussions sociétales sur le sujet du harcèlement sexuel.</t>
         </is>
       </c>
